--- a/Data/Transitions/18951974Translation.xlsx
+++ b/Data/Transitions/18951974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="850">
   <si>
     <t>id</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Rel</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564, 893.0: 2.695599433924119e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564, 893.0: 2.8870568908995634e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -37,13 +37,13 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
+    <t>{10.0: 0.9833918954386325}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9646230546083366, 178.0: 0.0001615647287706849, 623.0: 0.0007590363687327968, 696.0: 0.002902511791869661, 492.0: 1.7964016536290427e-05}</t>
+    <t>{14.0: 0.9646730965096205, 178.0: 0.00016254087099219297, 623.0: 0.0007610093990490748, 696.0: 0.0029812321615992374, 492.0: 1.8342530922535714e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -52,16 +52,16 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 0.8649253731343284, 636.0: 0.13910659595926958, 423.0: 0.0003786651141143844, 477.0: 0.00025028495136528975}</t>
-  </si>
-  <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{19.0: 0.8649253731343284, 636.0: 0.13910659595926958, 423.0: 0.00037866993652094233, 477.0: 0.0002502803258980169}</t>
+  </si>
+  <si>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -73,19 +73,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.020726036957175703, 246.0: 0.01620924641904141, 681.0: 0.007977062701882578, 741.0: 0.00817597294805933, 789.0: 0.003083001037889671}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.020748110743117883, 246.0: 0.01620029946546196, 681.0: 0.007981289926294452, 741.0: 0.008183965540227347, 789.0: 0.003089266097670683}</t>
   </si>
   <si>
     <t>{47.0: 0.9879518072289156}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -100,7 +100,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4776395175392409, 887.0: 0.16674291064097774, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{834.0: 0.4776073061429195, 887.0: 0.16777216478464738, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -112,37 +112,37 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8433678599502096, 888.0: 0.00464423766502221, 11.0: 1.0}</t>
+    <t>{73.0: 0.843363874567225, 888.0: 0.004644267467867127, 11.0: 1.0}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.11485198190981857}</t>
+    <t>{75.0: 1.0, 917.0: 0.11513761097960876}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118, 686.0: 0.007167897539154828}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
-  </si>
-  <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7702550409471253, 172.0: 0.0016235303668609249}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352, 860.0: 1.0}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144, 686.0: 0.007172497642410271}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
+  </si>
+  <si>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7683130360947987, 172.0: 0.001613899422967784}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899, 860.0: 1.0}</t>
   </si>
   <si>
     <t>{83.0: 0.9811509725848419, 439.0: 0.008687558175612783}</t>
@@ -151,10 +151,10 @@
     <t>{84.0: 0.6735799921564724}</t>
   </si>
   <si>
-    <t>{85.0: 0.9851321015144169, 178.0: 0.008663193195170482, 14.0: 0.000267904737480858, 492.0: 0.0025910368827408185, 97.0: 1.3172174322003193e-05, 696.0: 3.422962754903443e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9850972445109621, 178.0: 0.008709077689679268, 14.0: 0.00026888605151755945, 492.0: 0.0025908044280788496, 97.0: 1.313197655262991e-05, 696.0: 3.3255064897542764e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -163,22 +163,22 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9452080012612006, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 1.834017186446469e-07}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9631975404793867, 92.0: 0.14327353129413814, 858.0: 0.004867508316901873, 543.0: 5.670020007169423e-05}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8567263079604118, 91.0: 0.036469355466693706, 858.0: 0.10635135141719504, 543.0: 0.0012388562095129924}</t>
+    <t>{90.0: 0.945186179595832, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 1.8267282753151097e-07}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9632015604161517, 92.0: 0.14265477256351486, 858.0: 0.00453890631355781, 543.0: 5.288760464932781e-05}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8573450782432097, 91.0: 0.036469507672753906, 858.0: 0.09917164778675883, 543.0: 0.0011555539018070734}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.2553326544136883}</t>
+    <t>{97.0: 0.9710736238304881}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.2577610059258017}</t>
   </si>
   <si>
     <t>{99.0: 0.9979395604395604, 230.0: 0.004861357952258186}</t>
@@ -196,13 +196,13 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.004978663267839926, 86.0: -0.002198328542928274, 505.0: 0.009033022619824398}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.00813773778970335}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.9431251500439995, 914.0: 0.7690138754556746}</t>
+    <t>{543.0: 0.37030936990793084, 86.0: 0.1635861643509332, 505.0: 0.009033022619824398}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008137595844409649}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.9431027384420663, 914.0: 0.7690138754556746}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -211,16 +211,16 @@
     <t>{140.0: 1.0, 141.0: 0.6762181368326914, 762.0: 0.6762181368326914}</t>
   </si>
   <si>
-    <t>{142.0: 0.6799263461575976, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9560112890544775}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005095642723967638, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
-  </si>
-  <si>
-    <t>{146.0: 0.6945303597590754}</t>
+    <t>{142.0: 0.6798894445619768, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9559939909401058}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.0050954218128254096, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
+  </si>
+  <si>
+    <t>{146.0: 0.7349950571953114}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -235,10 +235,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9013829625635663, 700.0: 0.6938526302422036, 173.0: 0.06502310726042908, 404.0: 0.00014418315752371007}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9013829625635663, 700.0: 0.6938526302422036, 173.0: 0.06502310726042908, 404.0: 0.00014538334917061371}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -247,13 +247,13 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9610080910935691, 914.0: 0.224353720584676, 110.0: 0.027553839425323783}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.998719590268886, 893.0: 0.002102567558460813}</t>
-  </si>
-  <si>
-    <t>{167.0: 0.9994659939545818, 276.0: 0.3359221601549326}</t>
+    <t>{165.0: 0.9608848539888842, 914.0: 0.224353720584676, 110.0: 0.027564697048357754}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.998719590268886, 893.0: 0.0022519043749016595}</t>
+  </si>
+  <si>
+    <t>{167.0: 0.9994659939545818, 276.0: 0.33640708425326765}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -262,97 +262,97 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.639176144307317}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411903957421226, 81.0: 0.01441632528870922, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.7835236683980632, 404.0: 0.0017373964620257928, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 5.897300111701682e-07, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9026351080079558, 534.0: 0.21389852361588682, 298.0: 0.00017273254212841487, 857.0: 0.0003214470785624314, 204.0: 0.26835711298985004}</t>
+    <t>{171.0: 0.6418669800018848}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9405133606178667, 81.0: 0.0143799903907803, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.7835236683980632, 404.0: 0.0017518586832511837, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 5.873862547023003e-07, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.90266823408531, 534.0: 0.20174399620226097, 298.0: 0.00017483289999846807, 857.0: 0.00032149940825453016, 204.0: 0.26835673426855067}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751, 846.0: 0.0003843689942344651}</t>
   </si>
   <si>
-    <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 7.843133003059537e-08}</t>
-  </si>
-  <si>
-    <t>{562.0: 0.3592698740972617, 211.0: 1.4761722271806034e-05}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.008947842114551203, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.5230077124655707, 410.0: 0.013059345529523958, 277.0: 9.06645735454864e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.43324506134744395, 410.0: 0.020966022817549303, 277.0: 7.985601660096247e-05, 77.0: 0.00024278083201257624, 85.0: 2.2537092783715592e-07}</t>
+    <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 7.837401167412974e-08}</t>
+  </si>
+  <si>
+    <t>{562.0: 0.3592698740972617, 211.0: 1.4839699675110984e-05}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.00902169289075354, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5251893935775226, 410.0: 0.012944785775882045, 277.0: 9.10094829154628e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.43808003714475646, 410.0: 0.020874064669231966, 277.0: 8.020256053443621e-05, 77.0: 0.00024278083201257624, 85.0: 2.2458911379516768e-07}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.3531151954847155, 277.0: 0.0023258105425374496, 180.0: 4.655443559202107e-05}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.05832210449051426, 593.0: 0.04775675345927725, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09, 681.0: 5.675957073804327e-10}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.005331194363014698}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.1137254068871998, 917.0: 0.02802608503437404}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.6860086858877767, 857.0: 0.004685400347639181, 174.0: 0.0025351527709197635, 534.0: 0.0006007581912442989, 298.0: 4.851388771829226e-07}</t>
-  </si>
-  <si>
-    <t>{205.0: 1.0, 206.0: 0.013980982411382218, 785.0: 0.0020628566082206263, 578.0: 0.0029847546889122914}</t>
-  </si>
-  <si>
-    <t>{206.0: 0.8379801400742175, 785.0: 0.12364173122072085, 578.0: 0.17889766818286298}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.35417140670326264, 277.0: 0.002325274110489172, 180.0: 7.632284149116312e-05}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.05829453180140346, 593.0: 0.04764106985907185, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09, 681.0: 5.653399189940365e-10}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.003789048017917039}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.6935936080910996, 917.0: 0.01745654405787177}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.685997629403978, 857.0: 0.004683666862058774, 174.0: 0.0025352458092539132, 534.0: 0.0005666208265678053, 298.0: 4.910379697696709e-07}</t>
+  </si>
+  <si>
+    <t>{205.0: 1.0, 206.0: 0.013980982411382218, 785.0: 0.0021237924246233207, 578.0: 0.0029847546889122914}</t>
+  </si>
+  <si>
+    <t>{206.0: 0.8379801400742175, 785.0: 0.12729404995356577, 578.0: 0.17889766818286298}</t>
   </si>
   <si>
     <t>{208.0: 0.999708242159008, 688.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.1312976521075729}</t>
-  </si>
-  <si>
-    <t>{213.0: 1.0, 85.0: 0.0035277783402485837, 178.0: 3.102307321457648e-05, 14.0: 9.593723813101453e-07, 492.0: 9.278556428794337e-06, 97.0: 4.716982747360141e-08, 696.0: 1.2257700107084847e-08}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.1313058081251347}</t>
+  </si>
+  <si>
+    <t>{213.0: 1.0, 85.0: 0.0035276535166014764, 178.0: 3.118738653421403e-05, 14.0: 9.628864870816812e-07, 492.0: 9.277724003863383e-06, 97.0: 4.702587843376871e-08, 696.0: 1.190870721487655e-08}</t>
   </si>
   <si>
     <t>{214.0: 1.0, 99.0: 0.0020604395604395605, 230.0: 1.0037215317807679e-05}</t>
   </si>
   <si>
-    <t>{265.0: 0.17952896245359123}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13360763748597862}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -361,22 +361,22 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{627.0: 1.0, 626.0: 0.31248670495639225}</t>
   </si>
   <si>
-    <t>{226.0: 0.6870319824444158, 265.0: 0.00616722491106951}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.6474044709495611, 297.0: 4.042572425708979e-05, 686.0: 6.386683213733208e-05}</t>
-  </si>
-  <si>
-    <t>{230.0: 0.995128604832424, 581.0: 0.0012232932029192095, 144.0: 4.257908126080382e-05, 303.0: 0.0001474394666408979}</t>
+    <t>{226.0: 0.6870319824444158, 265.0: 0.0045897237913669515}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.6078630008514906, 297.0: 4.065561609317883e-05, 686.0: 6.397759600297142e-05}</t>
+  </si>
+  <si>
+    <t>{230.0: 0.995128604832424, 581.0: 0.0012236121765584547, 144.0: 4.2616672245835936e-05, 303.0: 0.00014770204805967065}</t>
   </si>
   <si>
     <t>{231.0: 1.0}</t>
@@ -388,22 +388,22 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{102.0: 0.1815575728619207, 253.0: 0.002564069085859641}</t>
+    <t>{102.0: 0.1815575728619207, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -412,10 +412,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.006093046099985501, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.004275200369087309}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6404429571061495, 46.0: 0.001474491300501327, 90.0: 3.0605488714081074e-05, 681.0: 1.1779478295751002e-05, 741.0: 1.2073202817571368e-05, 789.0: 1.1269301357269214e-05}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.0030589631511635878}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6407009174209272, 46.0: 0.001474491300501327, 90.0: 3.0638084381449914e-05, 681.0: 1.178572050545548e-05, 741.0: 1.2085005227742688e-05, 789.0: 1.127795583340998e-05}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -424,19 +424,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398, 600.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997, 600.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9845205880139628}</t>
+    <t>{253.0: 0.9845636436890745}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -454,28 +454,28 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.001550339549744622}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686, 897.0: 0.0011207192279457136}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0015671624197870367}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092, 897.0: 0.0010388882468031276}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -484,13 +484,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6639488203071672, 167.0: 0.0005340060454181676}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6420850419838438, 180.0: 0.012852253519766512}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6634639904975284, 167.0: 0.0005340060454181676}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6419369495283576, 180.0: 0.021070398464061755}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -499,7 +499,7 @@
     <t>{280.0: 0.8135048231511254}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -508,25 +508,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: 0.007694665498983906, 917.0: -0.0003916664222672209}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.22981246236489283, 142.0: 0.003522217017690445, 788.0: 0.026298366265383358, 44.0: 3.616660946846924e-07}</t>
-  </si>
-  <si>
-    <t>{287.0: 1.0, 847.0: 1.0, 409.0: 0.8790940270012993, 750.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{288.0: 0.9978448275862069, 8.0: 1.0, 839.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{285.0: 1.0, 311.0: 0.13416846320236783, 917.0: 0.0027874983459971626}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.23223840299411974, 142.0: 0.0035226258372721515, 788.0: 0.026172626732387502, 44.0: 3.5774486716174825e-07}</t>
+  </si>
+  <si>
+    <t>{287.0: 1.0, 847.0: 1.0, 409.0: 0.8789792612630773, 750.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{288.0: 0.9978511952726296, 8.0: 1.0, 839.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -538,52 +538,52 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9985641467881747, 298.0: 0.5881367522717978, 476.0: 7.433689011226494e-05, 595.0: 7.01071766849619e-06, 534.0: 2.42150526141751e-05, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.013607056815694891, 291.0: 0.0009316270461065804}</t>
+    <t>{297.0: 0.998555981419779, 298.0: 0.5865439809348431, 476.0: 7.508015578204456e-05, 595.0: 7.0379530324918975e-06, 534.0: 2.545540063657274e-05, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013609507813291451, 291.0: 0.0009349173197625517}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946238913745183e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.0009172755822364778, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946154538547632e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009133285356518292, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628, 732.0: 0.0014961101137043686}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.316551436824712, 909.0: 0.4014170354267451, 44.0: 7.544287133983491e-05}</t>
+    <t>{305.0: 0.7921536463673023, 732.0: 0.0014961101137043686}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3165879296007511, 909.0: 0.40143536078664743, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: -0.12142007238618385, 917.0: -0.003055447287573368}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2427079839550332, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9977799703996053, 217.0: 0.005354512670264527}</t>
+    <t>{311.0: 0.17223792870653248, 917.0: 0.004334928920664521}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2427079839550332, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9977799703996053, 217.0: 0.00539249435108721}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -592,28 +592,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.7446673455863116, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.7422389940741984, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 897.0: 0.015918924769318995, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
-  </si>
-  <si>
-    <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379, 165.0: 0.0005256436981231063, 914.0: 0.0001227150119429378, 110.0: 1.5071155162217302e-05}</t>
-  </si>
-  <si>
-    <t>{402.0: 0.9631065512242976, 476.0: 0.014382932878232587, 595.0: 0.0013564554759008286, 141.0: 0.0010254449556238716, 762.0: 0.0010254449556238716}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9425316486607611, 782.0: 0.044733262807919, 930.0: 0.09603434816167061}</t>
+    <t>{400.0: 0.9375071729331006, 897.0: 0.01581574764915452, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+  </si>
+  <si>
+    <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379, 165.0: 0.0005255762909825703, 914.0: 0.0001227150119429378, 110.0: 1.5077093968744839e-05}</t>
+  </si>
+  <si>
+    <t>{402.0: 0.9631027328570206, 476.0: 0.014355866202532654, 595.0: 0.0013457072780651506, 141.0: 0.0010254449556238716, 762.0: 0.0010254449556238716}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9424532032149486, 782.0: 0.044733262807919, 930.0: 0.09529245920638413}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -622,10 +622,10 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6825391518443464, 77.0: 0.01751008064894982, 85.0: 1.6254426223207072e-05}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6827456697463058, 77.0: 0.01751008064894982, 85.0: 1.6198039453237575e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -634,7 +634,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -643,58 +643,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545, 922.0: 0.06848441752911817, 887.0: 0.0027523278545498104, 834.0: 1.3501349733811965e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 0.00010495058635783166}</t>
+    <t>{418.0: 0.879367457019463, 922.0: 0.06856944170596174, 887.0: 0.0027489110219788312, 834.0: 1.418764392274871e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 0.00010453348257996115}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9933648160267351, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.674849362771424e-09, 92.0: 2.255934012411074e-12, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9933774668066054, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.616296670307187e-09, 92.0: 2.0938084682701493e-12, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0, 244.0: 0.020075282308657464, 565.0: 0.0002709920694102518, 436.0: 0.00754242614707731, 564.0: 0.0001531357489516091, 84.0: 4.878686138488579e-05, 567.0: 0.014299332697807437, 841.0: 0.0027063599458728013}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
-  </si>
-  <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9854815631925835, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2308415575332725e-06, 172.0: 2.5943467283154615e-09}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
+  </si>
+  <si>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9869660646445744, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2137022864894853e-06, 172.0: 2.549473102495131e-09}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -709,31 +709,31 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9487360394186147, 291.0: 0.06495660052796527}</t>
+    <t>{443.0: 0.9489069323445342, 291.0: 0.06518601099043715}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875, 32.0: 1.0, 590.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8274726965311221, 595.0: 0.07803901192271935, 402.0: 0.035199312420877364, 141.0: 3.747763663068598e-05, 762.0: 3.747763663068598e-05}</t>
+    <t>{476.0: 0.8259187805956957, 595.0: 0.07742095798735162, 402.0: 0.035199172868402566, 141.0: 3.747763663068598e-05, 762.0: 3.747763663068598e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9754941963143856}</t>
+    <t>{481.0: 0.9754793465303014}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -751,25 +751,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9885688283899184, 108.0: 0.008682397096544718, 144.0: 7.131503593648632e-05}</t>
-  </si>
-  <si>
-    <t>{494.0: 0.9250988757626364, 889.0: 0.0006215198201897897, 565.0: 9.779270768592461e-06}</t>
-  </si>
-  <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9885931946910314, 108.0: 0.00867772554421567, 144.0: 7.127506635021217e-05}</t>
+  </si>
+  <si>
+    <t>{494.0: 0.9250988757626364, 889.0: 0.0010856577184348603, 565.0: 9.779270768592461e-06}</t>
+  </si>
+  <si>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 0.9913707268503154}</t>
@@ -778,16 +778,16 @@
     <t>{498.0: 1.0, 47.0: 0.012048192771084338}</t>
   </si>
   <si>
-    <t>{499.0: 0.6683720830288906, 270.0: 0.9996682484918197, 479.0: 0.02116481274502622, 942.0: 0.0001947682154450266, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19531969272855593, 180.0: 0.003909603937500637}</t>
+    <t>{499.0: 0.6690568665420652, 270.0: 0.9996682484918197, 479.0: 0.020537856992426304, 942.0: 0.00018921634081314062, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.19481164714513766, 180.0: 0.0063943336394704925}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -799,10 +799,10 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873523329373408e-05}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873327357892935e-05}</t>
   </si>
   <si>
     <t>{531.0: 0.8678987719401994, 262.0: 0.019194950102852697, 442.0: 0.001823316747773528}</t>
@@ -814,34 +814,34 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.46263725501553843, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 595.0: 9.316750718904286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07, 174.0: 0.08824746074011176, 298.0: 1.688745329622459e-05, 857.0: 2.856322977005616e-05, 204.0: 0.025817451450404677}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847, 779.0: 0.9517781796262809}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{534.0: 0.4862675925146494, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 595.0: 9.242927226949286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07, 174.0: 0.08825069936021956, 298.0: 1.709279790007759e-05, 857.0: 2.85694055880084e-05, 204.0: 0.025817421182067726}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764, 779.0: 0.9517781796262809}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.7427510706908516}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6067210535157433}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.7427474702948016}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6068619892475952}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0, 280.0: 0.1864951768488746, 605.0: 1.0, 475.0: 0.017474965639112508, 974.0: 1.0}</t>
@@ -856,7 +856,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.6407301259027383, 211.0: 0.02935737516805425, 48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{562.0: 0.6407301259027383, 211.0: 0.02951245272887697, 48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -871,7 +871,7 @@
     <t>{576.0: 1.0, 401.0: 0.015734265734265736}</t>
   </si>
   <si>
-    <t>{577.0: 0.9995192956674869, 602.0: 0.008306962025316455, 423.0: 7.3396323542740645e-06}</t>
+    <t>{577.0: 0.9995192956674869, 602.0: 0.008306962025316455, 423.0: 7.339725826553075e-06}</t>
   </si>
   <si>
     <t>{578.0: 0.8179515418502202}</t>
@@ -880,22 +880,22 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6176277135902498}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7074712356882762, 144.0: 0.024624901995831543, 303.0: 0.08526915820731928, 181.0: 0.004568817818389492}</t>
+    <t>{580.0: 0.6167546233569814}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7076557087763062, 144.0: 0.02464664211550845, 303.0: 0.08542101779450953, 181.0: 0.004568817818389492}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.13435463720265733}</t>
+    <t>{758.0: 0.17026122246430186}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996, 434.0: 0.014278686035726003}</t>
+    <t>{585.0: 0.738502526649488, 434.0: 0.01281650453822409}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -904,49 +904,49 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.22700102159895758, 686.0: 0.0016654057694474836, 171.0: 0.0012702656154636076}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.4752051152692574, 686.0: 0.0034863690703496463, 171.0: 0.0026591806238009013, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 14.0: 1.4664395685542368e-06, 492.0: 1.4182649564776898e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9041378805394085, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.34903027661157165, 686.0: 0.0025338360963508516, 171.0: 0.0019604600211132086}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.35349335774018636, 686.0: 0.0025662364834301977, 171.0: 0.001985528597422912, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 14.0: 1.4718110216540514e-06, 492.0: 1.4181377169531444e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9046919016314485, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 0.9916930379746836, 423.0: 0.0008762123005792896, 577.0: 0.00048070433251317675}</t>
+    <t>{602.0: 0.9916930379746836, 423.0: 0.0008762234593889791, 577.0: 0.00048070433251317675}</t>
   </si>
   <si>
     <t>{603.0: 0.516286006648998, 617.0: 0.09814351135918095}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
-  </si>
-  <si>
-    <t>{606.0: 0.9962446226757116}</t>
-  </si>
-  <si>
-    <t>{607.0: 0.9993920972644377, 276.0: 0.0001289411065702988}</t>
-  </si>
-  <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
+  </si>
+  <si>
+    <t>{606.0: 0.9962612248325914}</t>
+  </si>
+  <si>
+    <t>{607.0: 0.9993920972644377, 276.0: 0.00012884687519226928}</t>
+  </si>
+  <si>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.619199737790098, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 1.0: 1.0}</t>
@@ -955,16 +955,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0, 682.0: 0.002717391304347826, 575.0: 5.173296010354117e-06}</t>
@@ -973,10 +973,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2878917757173359, 789.0: 0.09212777221851126, 681.0: 0.0072499186457823305, 171.0: 2.7483153704788956e-05, 90.0: 5.688704373793678e-06, 420.0: 9.022549354333896e-09, 212.0: 6.511616408654362e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.008531428771375069, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{246.0: 0.2876835141540328, 789.0: 0.09212803385885265, 681.0: 0.007249188091203141, 171.0: 2.7598853659561655e-05, 90.0: 5.688573040792835e-06, 420.0: 9.007802115801937e-09, 212.0: 6.511637700023861e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.008395821983903377, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -988,7 +988,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1006,7 +1006,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
@@ -1021,16 +1021,16 @@
     <t>{678.0: 1.0, 735.0: 0.6435926773455377}</t>
   </si>
   <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.017981043987404435, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6361972769699986e-08, 92.0: 7.895769043438758e-12, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.7838065806514597, 171.0: 0.0029712715112190902, 90.0: 0.0006150198562785497, 420.0: 9.754500572628648e-07, 212.0: 0.007039869053910691}</t>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.017980770264996004, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6157038346075156e-08, 92.0: 7.328329638945523e-12, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.7837275985946022, 171.0: 0.0029837801186066606, 90.0: 0.0006150056575440056, 420.0: 9.738556969434549e-07, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
   </si>
   <si>
-    <t>{615.0: 0.1400866634854835, 698.0: 0.025066663577475293, 751.0: 0.18291112586497266}</t>
+    <t>{615.0: 0.14011124871951042, 698.0: 0.025083268154457748, 751.0: 0.18291112586497266}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1039,34 +1039,34 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.5061713947170293}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 534.0: 0.04730432785716252, 174.0: 0.006537175659195088}</t>
-  </si>
-  <si>
-    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 580.0: 0.1692483342547498}</t>
+    <t>{686.0: 0.5064962376249993}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 534.0: 0.044612709947814626, 174.0: 0.006500967737618479}</t>
+  </si>
+  <si>
+    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.02865989283777865, 914.0: 0.005178544615863128}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.4722181529843751, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466, 543.0: -7.3379506503470745e-06, 505.0: 1.331358853608483e-05}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996093642750126, 492.0: 0.006877989998557762, 14.0: 0.0044574856178169935, 178.0: 7.46584327838029e-07, 623.0: 3.5074775383636553e-06, 97.0: 3.624939584340261e-06}</t>
+    <t>{692.0: 1.0, 110.0: 0.028671186302468753, 914.0: 0.005178544615863128}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.4741234952004585, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715, 543.0: 0.0005457914575782239, 505.0: 1.331358853608483e-05}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960435031848425, 492.0: 0.006841300053596776, 14.0: 0.004457716859496523, 178.0: 7.510950430780693e-07, 623.0: 3.5165948347171998e-06, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2019759292009454}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.770399094651638, 615.0: 0.0012539225822476843, 751.0: 0.0016372464413088462}</t>
+    <t>{698.0: 0.42302894312137684}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5493097300953231, 615.0: 0.0012541426458809325, 751.0: 0.0016372464413088462}</t>
   </si>
   <si>
     <t>{700.0: 0.30531201886304254}</t>
@@ -1075,40 +1075,40 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.6185314183072287}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
+    <t>{707.0: 0.939203537722822}</t>
   </si>
   <si>
     <t>{575.0: 0.9980962270681897, 693.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.21312395215500024}</t>
+    <t>{580.0: 0.21378461631512685}</t>
   </si>
   <si>
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
   </si>
   <si>
     <t>{732.0: 0.9985038898862957}</t>
   </si>
   <si>
-    <t>{888.0: 0.9953557623349778, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.9953557325321328, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 0.9928304239401496, 228.0: 0.9928304239401496}</t>
@@ -1117,16 +1117,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.9034402019069717, 246.0: 0.050779055413865654, 681.0: 0.0606032782798688, 171.0: 0.00022973626234394832, 90.0: 4.755282797793699e-05, 420.0: 7.542099381110275e-08, 212.0: 0.0005443168682934325}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.16227014493243197}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.9034306633239612, 246.0: 0.05074174755041244, 681.0: 0.06059717145238225, 171.0: 0.00023070341754921912, 90.0: 4.7551730143494106e-05, 420.0: 7.529771918634102e-08, 212.0: 0.0005443186480744946}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.12636355967078747}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1138,7 +1138,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18580263341122483, 476.0: 0.15804473364474264, 595.0: 0.014905210655202806, 534.0: 0.05148266943668257, 297.0: 0.00040398925276964663}</t>
+    <t>{298.0: 0.18735357437249206, 476.0: 0.15962496150509836, 595.0: 0.014963114689685803, 534.0: 0.054119724504907374, 297.0: 0.00040628664713390897}</t>
   </si>
   <si>
     <t>{751.0: 0.8154516276937185}</t>
@@ -1162,10 +1162,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006488429407866852}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{141.0: 0.08531777884783316, 762.0: 0.08531777884783316}</t>
@@ -1180,16 +1180,16 @@
     <t>{768.0: 0.9878610297195479}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005296867481815251}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005288803610238408}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.008611165443517668, 108.0: 7.563009847926788e-05, 144.0: 6.212066933768134e-07}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.09693769541970168, 729.0: 0.04317485636579488}</t>
+    <t>{772.0: 1.0, 493.0: 0.00858672963473121, 108.0: 7.537304878562167e-05, 144.0: 6.19081466202159e-07}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.09693908409627565, 729.0: 0.04317547486524815}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1201,55 +1201,55 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.01770244382228652, 184.0: 0.008192684577809846, 593.0: 0.0012618944109774287, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06, 681.0: 1.6173490314514016e-07, 227.0: 0.013593794665607582, 297.0: 8.488341051357435e-07, 686.0: 1.341035845403298e-06}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.00039723359866790484, 172.0: 8.372821674516765e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.017504494354900122, 184.0: 0.008208994008638804, 593.0: 0.0012618726865326077, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06, 681.0: 1.6109212218072175e-07, 227.0: 0.012763527576934185, 297.0: 8.536612303029675e-07, 686.0: 1.343361595862917e-06}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.00039170218459303987, 172.0: 8.227999526119286e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7312174064104665, 889.0: 0.5730622017651047}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.0693266940235475, 180.0: 0.0013876732660287297}</t>
+    <t>{785.0: 0.7312174064104665, 889.0: 0.25659597967009595}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.0698347001839775, 180.0: 0.0022921954571641172}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5187153827751221, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9747494196977742, 486.0: 1.0, 604.0: 0.406643068799627, 980.0: 0.30157180612251394, 840.0: 0.852224123182207, 303.0: 0.04791084093211753, 144.0: 5.075542515983719e-05}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005372966926216832}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5186852681208028, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9741566380206612, 486.0: 1.0, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394, 840.0: 0.852224123182207, 303.0: 0.04790278969434347, 144.0: 5.053702402564251e-05}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005360300071658137}</t>
   </si>
   <si>
     <t>{841.0: 0.9972936400541272}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1258,46 +1258,46 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
-  </si>
-  <si>
-    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1913625224321567e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
+  </si>
+  <si>
+    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1998133290428898e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 1.0, 229.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 91.0: 0.000333083017097464, 92.0: 1.6073529838428901e-07, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613790208428865, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 91.0: 0.0003289111377593871, 92.0: 1.4918385336424814e-07, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613735196308318, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.0006038335730569289, 86.0: -6.31093123858097e-05, 505.0: 0.0002593187665858292}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.014226396711358742, 86.0: 0.004696209027185564, 505.0: 0.0002593187665858292}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1306,10 +1306,10 @@
     <t>{886.0: 0.3792551629775861, 531.0: 0.010622899727404714, 262.0: 0.0002349421808251973, 442.0: 2.2317016234043518e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.7583372431913534, 834.0: 0.0036270849163956343, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.0066792419349486504, 494.0: 0.019047203721788936}</t>
+    <t>{887.0: 0.7574892058588422, 834.0: 0.0036884952488533893, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.0066792419349486504, 494.0: 0.019047203721788936}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1321,58 +1321,58 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.08115275122291041, 896.0: 1.0, 897.0: 0.025011973259636902, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 629.0: 0.3460716828863043, 788.0: 0.513246688327918}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.3316279169711094, 270.0: 0.0003317515081802529, 479.0: 7.023788701009786e-06, 942.0: 6.463609234058086e-08, 769.0: 0.4943955164131305}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.001011531576824e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.46065727549643454}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.3687705022083621}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.25724892930914856, 687.0: 0.006852159468438538, 534.0: 0.0003263731589559614, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9841625534894144, 253.0: 0.012889294468416732, 490.0: 0.04730928444707274, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028200061665639513, 108.0: 2.476753529917669e-05, 144.0: 2.0343433389172011e-07, 619.0: 0.0001431947985895543, 887.0: 1.2226180526476166e-06}</t>
+    <t>{895.0: 1.0, 209.0: 0.08122287673012647, 896.0: 1.0, 897.0: 0.024959772235402113, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 629.0: 0.3460716828863043, 788.0: 0.5105034182722188}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.33094313345793486, 270.0: 0.0003317515081802529, 479.0: 6.815726159460524e-06, 942.0: 6.279363832132536e-08, 769.0: 0.4943955164131305}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.00088973352395e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.4635006889360994}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.3663262362192328}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.2572525297051986, 687.0: 0.006852159468438538, 534.0: 0.00030780251479780105, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9841459227569659, 253.0: 0.0128897600084888, 490.0: 0.047477744807121657, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028200756742374905, 108.0: 2.4754209159410783e-05, 144.0: 2.03320316054488e-07, 619.0: 0.0001431947985895543, 887.0: 1.2031845778021464e-06}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.27665170598155925, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7269507306257114}</t>
+    <t>{915.0: 1.0, 171.0: 0.2741594620673877, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7266651015559211}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.22396696302162192, 297.0: 0.0009905894006934125, 857.0: 0.0007418295946381623}</t>
+    <t>{298.0: 0.22398909751516538, 297.0: 0.0009962226557635632, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.0697701476794267}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.8438891822425123, 887.0: 0.033915155976201164, 834.0: 1.6636840024509805e-05}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06954351822272714}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.8449368801810523, 887.0: 0.03387305255839875, 834.0: 1.7482515964782455e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1381,7 +1381,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.2374004574051698, 762.0: 0.2374004574051698, 263.0: 0.0020337729569826204, 595.0: 3.1594642834294153e-06}</t>
+    <t>{141.0: 0.2374004574051698, 762.0: 0.2374004574051698, 263.0: 0.0020337729569826204, 595.0: 3.1937479066863588e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1390,64 +1390,64 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06633246172511484, 887.0: 5.666016511537187e-05, 834.0: 2.7794243477701342e-08}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06512923086076715, 887.0: 5.658982527656115e-05, 834.0: 2.920706724426663e-08}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 3.872163013753022e-06}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.1952815322655885, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
-  </si>
-  <si>
-    <t>{936.0: 1.0, 702.0: 0.00014759802329813545}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.13759038269961094, 206.0: 0.14803887751440029, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 3.872095472216239e-06}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19521514499547668, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
+  </si>
+  <si>
+    <t>{936.0: 1.0, 702.0: 0.00013419178582038555}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.1338771281503633, 206.0: 0.14803887751440029, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056, 565.0: 0.008102194699882857}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1459,16 +1459,16 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.18405465131412485, 729.0: 0.0819756762272764}</t>
-  </si>
-  <si>
-    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925554e-05, 152.0: 2.353316507224184e-06, 166.0: 0.00038000778598933077, 893.0: 2.926513561719916e-07}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.1840572879807126, 729.0: 0.08197685056612072}</t>
+  </si>
+  <si>
+    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925554e-05, 152.0: 2.353316507224184e-06, 166.0: 0.0003800041378228341, 893.0: 2.962995226688764e-07}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364501, 403.0: 0.003748353763549791}</t>
@@ -1483,7 +1483,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123919, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1504,7 +1504,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8360594187381462, 90.0: 0.060501317216433745, 246.0: 0.060836043701626874, 681.0: 0.024047541953283215, 741.0: 0.007682407370618041, 789.0: 0.010873271019892425}</t>
+    <t>{46.0: 0.8360594187381462, 90.0: 0.060501317216433745, 246.0: 0.06083530380575233, 681.0: 0.024047541953283215, 741.0: 0.0076824073706180385, 789.0: 0.01087401091576699}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -1516,7 +1516,7 @@
     <t>{50.0: 0.7027624309392265, 96.0: 0.14157087340618177, 100.0: 0.15566669565459174}</t>
   </si>
   <si>
-    <t>{834.0: 0.901886977527475, 887.0: 0.0979437126920631, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
+    <t>{834.0: 0.9018869579531449, 887.0: 0.09794373226639341, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -1525,10 +1525,10 @@
     <t>{73.0: 0.8707625109862648, 888.0: 0.007535418671092929, 11.0: 0.12170207034264226}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487787, 917.0: 0.2266840904512216}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9889401386451631, 85.0: 0.0005168226488869417, 686.0: 0.010543038705950318}</t>
+    <t>{75.0: 0.7755896859332863, 917.0: 0.2244103140667137}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9889318415056485, 85.0: 0.0005251197884007162, 686.0: 0.010543038705950318}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699434, 172.0: 0.001461732130057138}</t>
+    <t>{81.0: 0.9985370734491795, 172.0: 0.0014629265508203809}</t>
   </si>
   <si>
     <t>{82.0: 0.7932843425038838, 914.0: 0.0009225701795882796, 110.0: 9.765832606118457e-05, 860.0: 0.2056954289904669}</t>
@@ -1549,7 +1549,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482204, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620285e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482204, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.4781030306718485e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044908, 165.0: 0.00047624670312689497, 433.0: 0.00010498729238260625}</t>
@@ -1561,7 +1561,7 @@
     <t>{89.0: 0.9985642498205316, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 1.8986124607877489e-07, 681.0: 2.0790628524275327e-07}</t>
+    <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 1.8986124607877489e-07, 681.0: 2.0790628524275312e-07}</t>
   </si>
   <si>
     <t>{91.0: 0.9592936041245316, 92.0: 0.04001922806534925, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
@@ -1582,22 +1582,22 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6683027218222525, 86.0: 0.3280550260439784, 505.0: 0.0036422521337693492}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871664}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.6641652280938671, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
+    <t>{543.0: 0.668300973970845, 86.0: 0.3280567738953858, 505.0: 0.0036422521337693492}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511275, 144.0: 0.012081148848871664}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.6641652280938668, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{140.0: 0.35852366256693413, 141.0: 0.6043341262132442, 762.0: 0.03714221121982108}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273647}</t>
+    <t>{140.0: 0.35852366256693413, 141.0: 0.6043885928101727, 762.0: 0.0370877446228932}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289226}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1615,13 +1615,13 @@
     <t>{152.0: 0.9990500316656112, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4092257506567011, 700.0: 0.5687493458544935, 173.0: 0.021884056783840946, 404.0: 0.00014084670496438258}</t>
+    <t>{185.0: 0.4092257506567011, 700.0: 0.5687493458544935, 173.0: 0.021884206740407322, 404.0: 0.00014069674839801112}</t>
   </si>
   <si>
     <t>{165.0: 0.8953373976905101, 914.0: 0.09579461286779518, 110.0: 0.008867989441694457}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542518}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578106}</t>
   </si>
   <si>
     <t>{167.0: 0.4188759223899271, 276.0: 0.5811240776100728}</t>
@@ -1633,13 +1633,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9784684300911429, 81.0: 0.020556721010436343, 97.0: 0.0009748488984207448}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9461440454101391, 404.0: 0.006089422657506927, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 6.286770484513005e-07, 681.0: 6.884285890900417e-07, 831.0: 0.0014662756598240463}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.16402617726976323, 534.0: 0.5621364534960864, 298.0: 0.00034882746042378364, 857.0: 0.00026403899429243774, 204.0: 0.273224502779434}</t>
+    <t>{172.0: 0.9784684483585999, 81.0: 0.020556702742979403, 97.0: 0.0009748488984207448}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921805, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 6.286770484513005e-07, 681.0: 6.884285890900415e-07, 831.0: 0.0014662756598240463}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.16470149953722885, 534.0: 0.561461131228621, 298.0: 0.00034886609755089936, 857.0: 0.0002627172097239232, 204.0: 0.2732257859268754}</t>
   </si>
   <si>
     <t>{175.0: 0.9813273695447162, 399.0: 0.018135092379669766, 846.0: 0.0005375380756136893}</t>
@@ -1651,25 +1651,25 @@
     <t>{562.0: 0.9999621514340227, 211.0: 3.784856597773307e-05}</t>
   </si>
   <si>
-    <t>{178.0: 0.978768843840004, 14.0: 0.007491382546310045, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.49033200132926413, 180.0: 0.4978619877626913, 410.0: 0.011704328030112692, 277.0: 0.00010168287793200858}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9661798650172353, 410.0: 0.033512916493253726, 277.0: 0.00021796074845748935, 77.0: 8.921111909447312e-05, 85.0: 4.662195928637215e-08}</t>
+    <t>{178.0: 0.9787135366093607, 14.0: 0.00749095923121892, 681.0: 0.00722748362491933, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.4911805971009018, 180.0: 0.49695873926331247, 410.0: 0.011680791584168786, 277.0: 0.00017987205161680263}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9660114869366397, 410.0: 0.033512916493253726, 277.0: 0.00038633882905287855, 77.0: 8.921037061934058e-05, 85.0: 4.7370434418871947e-08}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9979967004477964, 277.0: 0.001930680192132688, 180.0: 7.261936007094297e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9975965652732816, 277.0: 0.0023163105162455843, 180.0: 8.712421047296352e-05}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.6112571058524545, 171.0: 0.16537841045414448, 593.0: 0.20810706699212925, 778.0: 0.015229946623203337, 420.0: 2.7465559220133375e-05, 212.0: 2.1569235248684377e-09, 681.0: 2.361924652185425e-09}</t>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.0019382174506610637, 180.0: 7.290286165408993e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9975965652732816, 277.0: 0.0023163105162455826, 180.0: 8.712421047296354e-05}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.6109783003190128, 171.0: 0.1654935010893701, 593.0: 0.20824956668722608, 778.0: 0.015251161826322664, 420.0: 2.7465559220133375e-05, 212.0: 2.1569235248684364e-09, 681.0: 2.3619246521854243e-09}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
@@ -1684,7 +1684,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9918271038249771, 857.0: 0.00536540079700101, 174.0: 0.0006338547442648271, 534.0: 0.002172292641964667, 298.0: 1.3479917925285053e-06}</t>
+    <t>{204.0: 0.9918803394545189, 857.0: 0.005312165018151226, 174.0: 0.0006364644266354451, 534.0: 0.0021696829595940492, 298.0: 1.348141099954519e-06}</t>
   </si>
   <si>
     <t>{205.0: 0.9904418591949313, 206.0: 0.006534944050867963, 785.0: 0.0011285323159252114, 578.0: 0.001894664438275369}</t>
@@ -1708,7 +1708,7 @@
     <t>{212.0: 0.47423997430311066, 681.0: 0.5257600256968891}</t>
   </si>
   <si>
-    <t>{213.0: 0.9985304922850845, 85.0: 0.0014214157017900036, 178.0: 3.4718972372494056e-05, 14.0: 2.6573496417877344e-07, 492.0: 1.307397804048518e-05, 97.0: 2.674732921791012e-08, 696.0: 6.580419123615407e-09}</t>
+    <t>{213.0: 0.9985304922850845, 85.0: 0.0014214157017900036, 178.0: 3.4718972372494056e-05, 14.0: 2.6573496417877344e-07, 492.0: 1.307397785265704e-05, 97.0: 2.674732921791012e-08, 696.0: 6.580606951758779e-09}</t>
   </si>
   <si>
     <t>{214.0: 0.9995245265076472, 99.0: 0.00047240036998754287, 230.0: 3.0731223652585403e-06}</t>
@@ -1720,16 +1720,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680912, 409.0: 0.21846661763190867}</t>
+    <t>{218.0: 0.7813754377265824, 409.0: 0.21862456227341753}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310295, 999.0: 0.09984639016897079}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1741,10 +1741,10 @@
     <t>{226.0: 0.98456709390531, 265.0: 0.015432906094690035}</t>
   </si>
   <si>
-    <t>{227.0: 0.9996664752704238, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{230.0: 0.9967205946655007, 581.0: 0.0029169370366613034, 144.0: 0.00015255519407241, 303.0: 0.00020991310376563044}</t>
+    <t>{227.0: 0.9996683166600522, 297.0: 0.00017861479393955929, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{230.0: 0.9967205946655007, 581.0: 0.002916937036661304, 144.0: 0.00015255519407240996, 303.0: 0.00020991310376563044}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427757, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052157}</t>
@@ -1753,7 +1753,7 @@
     <t>{102.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.23750306546350647, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1762,13 +1762,13 @@
     <t>{243.0: 0.9947452593100297, 738.0: 0.00372591274978755, 228.0: 0.0015288279401827487}</t>
   </si>
   <si>
-    <t>{244.0: 0.9749250597858431, 565.0: 0.021736276431955755, 564.0: 0.0030846084181672174, 84.0: 0.00025405536403417004}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.999446839308173, 46.0: 0.00048162405811961025, 90.0: 3.485265432849212e-05, 681.0: 1.3852932559293719e-05, 741.0: 4.425561307053365e-06, 789.0: 1.8405485512825277e-05}</t>
+    <t>{244.0: 0.9749250597858431, 565.0: 0.021728732314269555, 564.0: 0.0030921525358534154, 84.0: 0.00025405536403417004}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994468380528209, 46.0: 0.00048162405811961025, 90.0: 3.485265432849212e-05, 681.0: 1.3852932559293719e-05, 741.0: 4.425561307053365e-06, 789.0: 1.8406740864772884e-05}</t>
   </si>
   <si>
     <t>{249.0: 0.8773903262092239, 600.0: 0.12260967379077614}</t>
@@ -1783,7 +1783,7 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8756893313117046, 973.0: 0.0986719535660132, 494.0: 0.01089834661306858, 84.0: 0.014740368509212728}</t>
+    <t>{255.0: 0.875689331311706, 973.0: 0.09869691161169195, 494.0: 0.010873388567389798, 84.0: 0.014740368509212728}</t>
   </si>
   <si>
     <t>{260.0: 0.9678010679843785, 707.0: 0.03219893201562126}</t>
@@ -1792,7 +1792,7 @@
     <t>{262.0: 0.9992897727272728, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549509, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988971}</t>
   </si>
   <si>
     <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
@@ -1804,13 +1804,13 @@
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{686.0: 0.9462026456299708, 921.0: 0.007832083685657111, 77.0: 0.04594126166338234, 85.0: 2.400902098948645e-05}</t>
+    <t>{686.0: 0.9462026456299708, 921.0: 0.007832083685657111, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9994319468243578, 167.0: 0.0005680531756420232}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658952}</t>
+    <t>{277.0: 0.9637501241434102, 180.0: 0.03624987585658955}</t>
   </si>
   <si>
     <t>{280.0: 1.0}</t>
@@ -1822,7 +1822,7 @@
     <t>{285.0: 0.8902520252007272, 311.0: 0.10777860007807102, 917.0: 0.0019693747212015692}</t>
   </si>
   <si>
-    <t>{909.0: 0.953615451526891, 142.0: 0.004010524852004906, 788.0: 0.04237388612014245, 44.0: 1.3750096152363283e-07}</t>
+    <t>{909.0: 0.953615451526891, 142.0: 0.0040105241303797804, 788.0: 0.04237388612014245, 44.0: 1.3822258664971232e-07}</t>
   </si>
   <si>
     <t>{287.0: 0.31605461345045516, 847.0: 0.08930331364660231, 409.0: 0.4173254281949934, 750.0: 0.17731664470794906}</t>
@@ -1843,7 +1843,7 @@
     <t>{293.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.821712315603181, 298.0: 0.16955259517586677, 476.0: 9.951423505460913e-06, 595.0: 1.8142184796366682e-06, 534.0: 9.59667146262742e-06, 857.0: 0.008713726907504675}</t>
+    <t>{297.0: 0.8217120967662809, 298.0: 0.16955531291751008, 476.0: 9.952712928687382e-06, 595.0: 1.8129290564102036e-06, 534.0: 9.59667146262742e-06, 857.0: 0.00871122800276126}</t>
   </si>
   <si>
     <t>{299.0: 0.9836831771673026, 443.0: 0.01458667696336836, 291.0: 0.00173014586932913}</t>
@@ -1852,7 +1852,7 @@
     <t>{301.0: 0.9995592383638928, 145.0: 0.00043337092059544035, 743.0: 1.3700028984314633e-06, 544.0: 4.091679947130299e-10, 975.0: 1.2514541508064231e-06, 942.0: 4.685949257780303e-06, 152.0: 8.290003674011708e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603586, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -1861,13 +1861,13 @@
     <t>{305.0: 0.9992405063291141, 732.0: 0.0007594936708860759}</t>
   </si>
   <si>
-    <t>{142.0: 0.31786658877294144, 909.0: 0.6821038549456095, 44.0: 2.9556281449005187e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.8858654923525076, 204.0: 0.0409854440794062, 426.0: 0.0731432659158121, 857.0: 5.797652272921263e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015056, 887.0: 0.1500728508984944}</t>
+    <t>{142.0: 0.3178664336572601, 909.0: 0.6821038549456095, 44.0: 2.9711397130311994e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.8880984604071779, 204.0: 0.04103334546343127, 426.0: 0.07086273685860801, 857.0: 5.45727078249987e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823571, 917.0: 0.018264222417641886}</t>
@@ -1876,13 +1876,10 @@
     <t>{226.0: 0.9417289819392753, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452711, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{98.0: 0.9087606539052678, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -1891,52 +1888,52 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9560119393598808, 897.0: 0.03148216163115374, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158477}</t>
+    <t>{400.0: 0.9560119393598796, 897.0: 0.03148216163115374, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158477}</t>
   </si>
   <si>
     <t>{401.0: 0.9919143091547965, 16.0: 0.006852835243415693, 165.0: 0.001103821726232714, 914.0: 0.00011810092509513969, 110.0: 1.0932950459786665e-05}</t>
   </si>
   <si>
-    <t>{402.0: 0.987618345723079, 476.0: 0.008786909525333939, 595.0: 0.0016019189245647474, 141.0: 0.001877438939818454, 762.0: 0.00011538688720426235}</t>
+    <t>{402.0: 0.987618345723079, 476.0: 0.00878804806046156, 595.0: 0.0016007803894371245, 141.0: 0.0018776081470592127, 762.0: 0.00011521767996350528}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.1809349165971995, 404.0: 0.7105462066295465, 782.0: 0.012351345839021853, 930.0: 0.09616753093423205}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.9430399999999999, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9895157952821076, 77.0: 0.010478728507540653, 85.0: 5.476210351471466e-06}</t>
+    <t>{405.0: 0.17699640347484039, 404.0: 0.714459882052916, 782.0: 0.012362618293449795, 930.0: 0.09618109617879396}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917458, 403.0: 0.05686174290825453}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9895157952821076, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593298}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.12228716197857423, 180.0: 0.004599630474255936}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.002013998002050393, 834.0: 1.774681331687818e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391351, 17.0: 0.014789533560864623}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 7.851901692833816e-05, 681.0: 8.5981723324993e-05}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12246045507537903, 180.0: 0.004606148609080106}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.0020140238148212953, 834.0: 1.7488685607857588e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.014739229024943313}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 7.851901692833816e-05, 681.0: 8.598172332499299e-05}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9987563735853748, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540838, 91.0: 2.5031470007799736e-07, 92.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.047562924406006714, 434.0: 0.0003999430514455907}</t>
-  </si>
-  <si>
-    <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0010007592542332624, 436.0: 0.0029651593773165306, 564.0: 0.002428214493749036, 84.0: 0.00019999326771240656, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
+    <t>{423.0: 0.9987563735853748, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540828, 91.0: 2.5031470007799736e-07, 92.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04748944923957108, 434.0: 0.0003993252197492278}</t>
+  </si>
+  <si>
+    <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0009948204985065095, 436.0: 0.0029651593773165306, 564.0: 0.002434153249475787, 84.0: 0.00019999326771240656, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -1948,7 +1945,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938212}</t>
+    <t>{431.0: 0.9996376811594209, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1960,10 +1957,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.693630435236865, 585.0: 0.3063695647631346}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.7964691200029286e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{434.0: 0.693630435236865, 585.0: 0.3063695647631347}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.7964633826140964e-06, 172.0: 7.027153842396637e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -1972,7 +1969,7 @@
     <t>{439.0: 0.973535457348407, 83.0: 0.02646454265159301}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363632, 782.0: 0.011363636363636367}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
@@ -1984,31 +1981,31 @@
     <t>{475.0: 0.6294262450293505, 32.0: 0.12118916871804584, 590.0: 0.24938458625260368}</t>
   </si>
   <si>
-    <t>{476.0: 0.7998608662067432, 595.0: 0.14582058173025728, 402.0: 0.05420916828020738, 141.0: 0.00010305033707116813, 762.0: 6.3334457210852915e-06}</t>
+    <t>{476.0: 0.7999645055683142, 595.0: 0.1457169423686864, 402.0: 0.05420916828020738, 141.0: 0.0001030596246505537, 762.0: 6.324158141699842e-06}</t>
   </si>
   <si>
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555476, 563.0: 0.03900037864445287}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923825, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555467, 563.0: 0.03900037864445287}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294475, 503.0: 0.02208588957055216}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458275, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589339, 14.0: 0.00011685133629600277}</t>
+    <t>{492.0: 0.9720846452514069, 97.0: 0.011519836235458275, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589339, 14.0: 0.00011685133629600277}</t>
   </si>
   <si>
     <t>{493.0: 0.9826319305277218, 108.0: 0.01715824323976576, 144.0: 0.00020982623251213317}</t>
@@ -2026,10 +2023,10 @@
     <t>{498.0: 0.9903248099516241, 47.0: 0.009675190048375951}</t>
   </si>
   <si>
-    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.0027303040350768045, 942.0: 6.181820456777674e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.0027290827911483732, 942.0: 6.303944849620883e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434097, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2038,7 +2035,7 @@
     <t>{505.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728275, 702.0: 0.611204481792717}</t>
+    <t>{249.0: 0.388795518207283, 702.0: 0.611204481792717}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
@@ -2053,13 +2050,13 @@
     <t>{532.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9617579692661238, 402.0: 0.0006865588905779017, 476.0: 6.108362487844269e-06, 595.0: 1.113599888466732e-06, 141.0: 1.3051320899732756e-06, 762.0: 8.021306368928927e-08, 174.0: 0.014212196874709235, 298.0: 3.022447163841542e-05, 857.0: 2.0765721166853833e-05, 204.0: 0.023283677468253876}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825397, 71.0: 0.006547732017460618}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7600613177801319, 837.0: 0.1688553987614641, 779.0: 0.07108328345840431}</t>
+    <t>{534.0: 0.9616994553558513, 402.0: 0.0006865588905779017, 476.0: 6.109153958980351e-06, 595.0: 1.1128084173306506e-06, 141.0: 1.3052497171275257e-06, 762.0: 8.009543653503993e-08, 174.0: 0.014270710784981688, 298.0: 3.022781938733197e-05, 857.0: 2.067215304595761e-05, 204.0: 0.02328376768862586}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825392, 71.0: 0.006547732017460618}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7601383644121635, 837.0: 0.16877835212943204, 779.0: 0.07108328345840431}</t>
   </si>
   <si>
     <t>{537.0: 0.9595797038915646, 608.0: 0.026831661148583517, 293.0: 0.013588634959851758}</t>
@@ -2095,13 +2092,13 @@
     <t>{561.0: 0.99756216479766, 979.0: 0.00243783520234032}</t>
   </si>
   <si>
-    <t>{562.0: 0.8159274650691113, 211.0: 0.028037860558806155, 48.0: 0.14328649982949973, 443.0: 0.011396428448843558, 291.0: 0.0013517460937394006}</t>
+    <t>{562.0: 0.8159274650691113, 211.0: 0.028037860558806155, 48.0: 0.14328649982949973, 443.0: 0.011396428448843567, 291.0: 0.0013517460937394}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.7553774036745228, 565.0: 0.18168775337220802, 84.0: 0.06293484295326922}</t>
+    <t>{564.0: 0.7572248524454114, 565.0: 0.17984030460131892, 84.0: 0.06293484295326922}</t>
   </si>
   <si>
     <t>{567.0: 1.0}</t>
@@ -2119,7 +2116,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8878338303942803, 144.0: 0.046433522766359744, 303.0: 0.06389166191242392, 181.0: 0.0018409849269359108}</t>
+    <t>{581.0: 0.8878338303942804, 144.0: 0.04643352276635974, 303.0: 0.06389166191242392, 181.0: 0.0018409849269359108}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -2137,13 +2134,13 @@
     <t>{589.0: 0.9635931981692134, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571233, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.1616104459946e-07, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588213, 402.0: 0.0008894395353984783, 476.0: 7.913405780326473e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.00541750842649402, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.987839802237709, 686.0: 0.005399049051054197, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.1616104459946e-07, 492.0: 3.0314700497386945e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334679, 402.0: 0.0008894395353984777, 476.0: 7.914431134056821e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294204, 599.0: 0.017932683170579104}</t>
@@ -2155,10 +2152,10 @@
     <t>{602.0: 0.9979748886188744, 423.0: 0.0014175779667881733, 577.0: 0.0006075334143377885}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542193, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7589999858839295, 837.0: 0.16861961302107828, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{603.0: 0.8619640387275244, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.759680996969417, 837.0: 0.16867679992930837, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2179,7 +2176,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.829288246523043, 615.0: 0.019634578674665927, 698.0: 0.010908099263703296, 832.0: 0.1401690755385874}</t>
+    <t>{305.0: 0.829288246523043, 615.0: 0.019634578674665944, 698.0: 0.010908099263703296, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2191,10 +2188,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.7537463958568987, 789.0: 0.23373189579710485, 681.0: 0.012442046842311745, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 1.5925699825326867e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914441, 887.0: 0.013007925875422117, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.7537304350364985, 789.0: 0.23374785661750527, 681.0: 0.012442046842311745, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 1.5925699825326867e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791261, 861.0: 0.02152800086044684, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111375}</t>
@@ -2209,7 +2206,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542199, 617.0: 0.13761720904578048}</t>
+    <t>{603.0: 0.8619640387275244, 617.0: 0.13803596127247575}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -2224,7 +2221,7 @@
     <t>{678.0: 0.5749604714675864, 735.0: 0.4250395285324134}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905325, 91.0: 5.201367219170938e-07, 92.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.37038232433548e-05, 307.0: 4.568668548426226e-08, 207.0: 1.1116985253964605e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905322, 91.0: 5.201367219170938e-07, 92.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.568668548426226e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9936381281624278, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157585, 420.0: 1.849444563393273e-06, 212.0: 0.0012718472100828634}</t>
@@ -2245,7 +2242,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
   </si>
   <si>
     <t>{689.0: 0.4093393339333933, 700.0: 0.0008121812181218122, 580.0: 0.5898484848484848}</t>
@@ -2257,10 +2254,10 @@
     <t>{692.0: 0.9486669212930688, 110.0: 0.039490951555331485, 914.0: 0.011842127151599699}</t>
   </si>
   <si>
-    <t>{86.0: 0.950554327074495, 165.0: 0.03933269293741559, 433.0: 0.008670785344030915, 543.0: 0.0014343772829299333, 505.0: 7.817361128107671e-06}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9804537812251541, 492.0: 0.017863027626828197, 14.0: 0.0016752729164556514, 178.0: 1.0827350987172693e-06, 623.0: 2.7275555671239305e-06, 97.0: 4.107940895865923e-06}</t>
+    <t>{86.0: 0.9505543308259072, 165.0: 0.03933269293741559, 433.0: 0.008670785344030915, 543.0: 0.0014343735315186777, 505.0: 7.817361128107671e-06}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9804817605618695, 492.0: 0.017835041951055706, 14.0: 0.001675281715352169, 178.0: 1.0820361089827845e-06, 623.0: 2.7257947178230103e-06, 97.0: 4.107940895865923e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2275,7 +2272,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9618681096678863, 481.0: 0.012221958191459804, 477.0: 0.005093562077699727, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
+    <t>{704.0: 0.9618681096678863, 481.0: 0.012221958191459797, 477.0: 0.005093562077699727, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2293,10 +2290,10 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.890768909333088, 73.0: 0.10923109066691225}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{888.0: 0.8907939018318656, 73.0: 0.10920609816813451}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 0.709057395905222, 228.0: 0.29094260409477785}</t>
@@ -2305,7 +2302,7 @@
     <t>{739.0: 0.9994516792323511, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.45383207699236716, 789.0: 0.4981938366246102, 246.0: 0.03031912813640829, 681.0: 0.01754263966495177, 171.0: 7.635845001369348e-05, 90.0: 1.3473070392327e-05, 420.0: 3.265186654613626e-08, 212.0: 2.2454409390085992e-05}</t>
+    <t>{740.0: 0.45383207699236716, 789.0: 0.4982278567241085, 246.0: 0.03028510803691015, 681.0: 0.01754263966495177, 171.0: 7.635845001369348e-05, 90.0: 1.3473070392327e-05, 420.0: 3.265186654613626e-08, 212.0: 2.2454409390085992e-05}</t>
   </si>
   <si>
     <t>{741.0: 0.8859583153113909, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
@@ -2317,13 +2314,13 @@
     <t>{746.0: 0.9899854627685348, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
-    <t>{298.0: 0.5919182181656845, 476.0: 0.18965230484778295, 595.0: 0.03457502496720431, 534.0: 0.18289150901431148, 297.0: 0.0009629430050168127}</t>
+    <t>{298.0: 0.5919183197205257, 476.0: 0.1896768784262957, 595.0: 0.03455045138869174, 534.0: 0.18289150901431148, 297.0: 0.0009628414501755321}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.0799912289212821}</t>
+    <t>{754.0: 0.8492529563266307, 917.0: 0.15074704367336977}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2341,31 +2338,31 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009007, 762.0: 0.057901139999098857}</t>
+    <t>{141.0: 0.9421837681943136, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 410.0: 0.013653342745374861, 729.0: 0.00598951439748228}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9872276603169209, 493.0: 0.01255050880014011, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
+    <t>{770.0: 0.9801712483100498, 410.0: 0.013782554190914696, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9872276603169207, 493.0: 0.01255050880014012, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
   </si>
   <si>
-    <t>{778.0: 0.9672057684561622, 171.0: 0.019475089212066216, 184.0: 0.0015371095084382707, 593.0: 0.0020249557566126945, 420.0: 0.0019577948163881673, 212.0: 1.5374941622297738e-07, 681.0: 1.6836226794750095e-07, 227.0: 0.007796358992576964, 297.0: 1.4073705824178683e-06, 686.0: 1.1937754887992494e-06}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523233, 81.0: 0.00034909044494929776, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9677527079530817, 171.0: 0.018981964203136196, 184.0: 0.0015253461905305743, 593.0: 0.0019829045865312075, 420.0: 0.0019577948163881673, 212.0: 1.5374941622297736e-07, 681.0: 1.6836226794750087e-07, 227.0: 0.007796373353501274, 297.0: 1.3930096581074814e-06, 686.0: 1.1937754887992494e-06}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523233, 81.0: 0.00034909002737804464, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2380,13 +2377,13 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.0001632989879273059}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051403, 756.0: 0.005039354435002382}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7726498824215013, 486.0: 0.10007333290195161, 604.0: 0.0912644065398217, 980.0: 0.01844485800684812, 840.0: 0.016429609884430787, 303.0: 0.001135289338930724, 144.0: 2.620906515422988e-06}</t>
+    <t>{835.0: 0.9827025729172753, 836.0: 0.012258072647722114, 756.0: 0.005039354435002382}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598001, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7726406310427193, 486.0: 0.10007333290195161, 604.0: 0.09127365791860366, 980.0: 0.01844485800684812, 840.0: 0.016429609884430787, 303.0: 0.0011352782248321624, 144.0: 2.632020613984921e-06}</t>
   </si>
   <si>
     <t>{838.0: 0.8986196061801565, 19.0: 0.08849300800794795, 423.0: 0.012887385811895666}</t>
@@ -2398,37 +2395,37 @@
     <t>{842.0: 0.9956627812415285, 606.0: 0.00433721875847113}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
+    <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
     <t>{846.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.8022190532860048, 707.0: 0.004568879278325606, 634.0: 0.1932120674356699}</t>
-  </si>
-  <si>
-    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313654, 217.0: 1.5409225696039546e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.49132519157437143}</t>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.00456887927832561, 634.0: 0.1932120674356699}</t>
+  </si>
+  <si>
+    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313663, 217.0: 1.5409225696039546e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525659}</t>
   </si>
   <si>
     <t>{851.0: 0.2959642512983743, 7.0: 0.5888157159476503, 229.0: 0.1152200327539754}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290925, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8153227432296279, 91.0: 0.0009667059465472801, 92.0: 1.7917941423782725e-07, 202.0: 0.060726257971677966, 680.0: 0.0019916987452363753, 477.0: 0.10462810023960326, 307.0: 8.491150244668037e-05, 207.0: 0.004399820531246505, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323127, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254721, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9383672486941185, 543.0: 0.04519356140649856, 86.0: 0.016258676888189712, 505.0: 0.00018051301119324025}</t>
+    <t>{852.0: 0.9898358092259585, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8153227432296275, 91.0: 0.0009667059465472801, 92.0: 1.7917941423782725e-07, 202.0: 0.060726257971677966, 680.0: 0.0019916987452363753, 477.0: 0.10476413795959924, 307.0: 8.491150244668037e-05, 207.0: 0.0042637828112505214, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310046, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.994730730308541, 298.0: 0.005269269691458645}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9383672486941185, 543.0: 0.04519347478154535, 86.0: 0.016258763513142923, 505.0: 0.00018051301119324025}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932898}</t>
@@ -2440,7 +2437,7 @@
     <t>{886.0: 0.990260452279924, 531.0: 0.009534025984806517, 262.0: 0.00019460907675969045, 442.0: 1.0912658509889185e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9928399402803227, 834.0: 0.006610309975199911, 619.0: 0.0005377841363674719, 861.0: 1.1956872267456317e-05, 253.0: 8.735842383070054e-09}</t>
+    <t>{887.0: 0.992852504847461, 834.0: 0.006597766661730991, 619.0: 0.000537728739145359, 861.0: 1.1990990892844979e-05, 253.0: 8.760769883093083e-09}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621839, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2455,7 +2452,7 @@
     <t>{895.0: 0.8122339801600194, 209.0: 0.02237940402052349, 896.0: 0.061103468391655466, 897.0: 0.036977147790429335, 400.0: 0.0008175587707242626, 432.0: 0.0009383128553397442, 629.0: 0.015257885204948654, 788.0: 0.05029224280635964}</t>
   </si>
   <si>
-    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795437, 270.0: 1.585958775157078e-05, 479.0: 1.984712730947427e-07, 942.0: 4.493689202145121e-09, 769.0: 0.023047494634692543}</t>
+    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795437, 270.0: 1.585958775157078e-05, 479.0: 1.983824984256506e-07, 942.0: 4.582463871237359e-09, 769.0: 0.023047494634692543}</t>
   </si>
   <si>
     <t>{906.0: 0.9548528279401363, 477.0: 0.037800982895492344, 202.0: 0.001492242297122392, 307.0: 0.0003443049939703535, 680.0: 0.00548082869511441, 481.0: 2.8813178163827512e-05}</t>
@@ -2467,13 +2464,13 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.9950083194675542, 687.0: 0.003523341267032717, 534.0: 0.00146096186074179, 174.0: 7.377404671415716e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.8353596176236937, 253.0: 0.002695446362369903, 490.0: 0.007128277859003354, 225.0: 0.14948473064177767, 779.0: 0.004732401444931624, 493.0: 0.0005373711993716732, 108.0: 9.383315830081004e-06, 144.0: 1.147475170729795e-07, 619.0: 5.195681212347623e-05, 887.0: 6.999933816211601e-07}</t>
-  </si>
-  <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.22180900334722664}</t>
+    <t>{542.0: 0.9950083194675542, 687.0: 0.0035300608011120645, 534.0: 0.0014541497986687235, 174.0: 7.469932665135072e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.835352084870844, 253.0: 0.0026954408588452244, 490.0: 0.007135819414080591, 225.0: 0.14948473064177767, 779.0: 0.004732401444931624, 493.0: 0.0005373711993716732, 108.0: 9.383315830081004e-06, 144.0: 1.147475170729795e-07, 619.0: 5.1951460044701794e-05, 887.0: 7.020467573608354e-07}</t>
+  </si>
+  <si>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.21843175110116217}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
@@ -2485,28 +2482,28 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9925845578271282, 297.0: 0.005990275426909785, 857.0: 0.001425166745962536}</t>
+    <t>{298.0: 0.9927157970888625, 297.0: 0.005859444871573599, 857.0: 0.0014247580395640633}</t>
   </si>
   <si>
     <t>{921.0: 0.8183024740968304, 686.0: 0.18169752590317012}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854247, 887.0: 0.06836565552205066, 834.0: 6.024199252435389e-05}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9381917012249766, 762.0: 0.05766100708217407, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6029591223004622, 418.0: 0.22677151406745158, 922.0: 0.17018011800462188, 887.0: 8.916705583274729e-05, 834.0: 7.857163176271236e-08}</t>
+    <t>{922.0: 0.9315741024854247, 887.0: 0.06836653174288197, 834.0: 5.936577169307047e-05}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9382762572793439, 762.0: 0.05757645102780743, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6029858983494535, 418.0: 0.22676395094056628, 922.0: 0.17016090508251563, 887.0: 8.916819865850078e-05, 834.0: 7.742880600922179e-08}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215623, 108.0: 0.0017460566474922733, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.3917553881540595, 702.0: 0.5778929123801478, 299.0: 0.03035169946579281}</t>
+    <t>{932.0: 0.9982325910215623, 108.0: 0.0017460566474922729, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.3915011905494237, 702.0: 0.5781471099847836, 299.0: 0.03035169946579281}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747106, 5.0: 0.03148289312528854}</t>
@@ -2518,28 +2515,28 @@
     <t>{936.0: 0.9836341995635787, 702.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471714, 171.0: 0.003293328528655216, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5161706511015557, 206.0: 0.4824685312441532, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{593.0: 0.9916176050004198, 171.0: 0.0032933364754076174, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.501426490651451, 206.0: 0.49668232704395954, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16042594361443507, 707.0: 0.0009136740974718648}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.1099318387297291, 848.0: 0.1844589262685211, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382856, 615.0: 0.045862412761714856}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.8804718316280212, 494.0: 0.09724837562586475, 565.0: 0.022279792746113983}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211059, 615.0: 0.046231155778894494}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.8806945378317447, 494.0: 0.09702566942214137, 565.0: 0.022279792746113983}</t>
   </si>
   <si>
     <t>{975.0: 0.9378725155834826, 152.0: 0.06212748441651744}</t>
@@ -2548,7 +2545,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601314, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{782.0: 0.9504155918601314, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978184, 561.0: 0.013490241102181402}</t>
@@ -2557,13 +2554,13 @@
     <t>{980.0: 0.967558678427269, 840.0: 0.03244132157273135}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471196}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898867, 249.0: 0.007603186097031136, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898882, 599.0: 0.007022471910112361}</t>
+    <t>{990.0: 0.9929775280898882, 599.0: 0.007022471910112355}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.30492073296273425}</t>
@@ -5028,7 +5025,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>622</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5039,7 +5036,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5050,7 +5047,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5061,7 +5058,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5072,7 +5069,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5083,7 +5080,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5094,7 +5091,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5105,7 +5102,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5138,7 +5135,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5149,7 +5146,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5171,7 +5168,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5182,7 +5179,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5215,7 +5212,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5226,7 +5223,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5237,7 +5234,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5259,7 +5256,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5270,7 +5267,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5281,7 +5278,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5292,7 +5289,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5303,7 +5300,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5314,7 +5311,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5325,7 +5322,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5347,7 +5344,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5358,7 +5355,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5369,7 +5366,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5380,7 +5377,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5391,7 +5388,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5402,7 +5399,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5413,7 +5410,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5435,7 +5432,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5457,7 +5454,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5468,7 +5465,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5479,7 +5476,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5490,7 +5487,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5501,7 +5498,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5512,7 +5509,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5523,7 +5520,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5545,7 +5542,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5556,7 +5553,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5567,7 +5564,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5611,7 +5608,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5622,7 +5619,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5633,7 +5630,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5644,7 +5641,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5655,7 +5652,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5666,7 +5663,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5677,7 +5674,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5688,7 +5685,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5699,7 +5696,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5710,7 +5707,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5721,7 +5718,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5743,7 +5740,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5765,7 +5762,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5776,7 +5773,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5787,7 +5784,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5798,7 +5795,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5809,7 +5806,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5820,7 +5817,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5842,7 +5839,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5853,7 +5850,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5864,7 +5861,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5875,7 +5872,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5886,7 +5883,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5897,7 +5894,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5908,7 +5905,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5919,7 +5916,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5930,7 +5927,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5941,7 +5938,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5952,7 +5949,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5963,7 +5960,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5974,7 +5971,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5985,7 +5982,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5996,7 +5993,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6007,7 +6004,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6018,7 +6015,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6029,7 +6026,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6040,7 +6037,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6051,7 +6048,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6062,7 +6059,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6084,7 +6081,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6095,7 +6092,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6117,7 +6114,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6139,7 +6136,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6150,7 +6147,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6172,7 +6169,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6183,7 +6180,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6205,7 +6202,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6216,7 +6213,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6227,7 +6224,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6238,7 +6235,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6249,7 +6246,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6271,7 +6268,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6282,7 +6279,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6293,7 +6290,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6304,7 +6301,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6315,7 +6312,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6326,7 +6323,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6337,7 +6334,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6359,7 +6356,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6370,7 +6367,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6381,7 +6378,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6392,7 +6389,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6403,7 +6400,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6414,7 +6411,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6425,7 +6422,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6436,7 +6433,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6447,7 +6444,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6458,7 +6455,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6480,7 +6477,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6513,7 +6510,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6524,7 +6521,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6535,7 +6532,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6557,7 +6554,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6579,7 +6576,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6590,7 +6587,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6601,7 +6598,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6612,7 +6609,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6623,7 +6620,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6634,7 +6631,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6645,7 +6642,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6656,7 +6653,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6667,7 +6664,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6678,7 +6675,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6689,7 +6686,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6700,7 +6697,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6711,7 +6708,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6722,7 +6719,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6733,7 +6730,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6755,7 +6752,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6766,7 +6763,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6777,7 +6774,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6799,7 +6796,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6810,7 +6807,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6832,7 +6829,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6843,7 +6840,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6854,7 +6851,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6865,7 +6862,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6876,7 +6873,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6887,7 +6884,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6898,7 +6895,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6920,7 +6917,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6931,7 +6928,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6942,7 +6939,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6953,7 +6950,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6964,7 +6961,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6975,7 +6972,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6986,7 +6983,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6997,7 +6994,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7030,7 +7027,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7041,7 +7038,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7063,7 +7060,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7074,7 +7071,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7085,7 +7082,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7096,7 +7093,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7107,7 +7104,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7118,7 +7115,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7129,7 +7126,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7140,7 +7137,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7173,7 +7170,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7184,7 +7181,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7206,7 +7203,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7217,7 +7214,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7261,7 +7258,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7272,7 +7269,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7283,7 +7280,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7305,7 +7302,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7316,7 +7313,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7327,7 +7324,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7338,7 +7335,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7349,7 +7346,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7360,7 +7357,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7371,7 +7368,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7382,7 +7379,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7393,7 +7390,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7404,7 +7401,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7415,7 +7412,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7426,7 +7423,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7437,7 +7434,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7459,7 +7456,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7470,7 +7467,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7481,7 +7478,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7492,7 +7489,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7503,7 +7500,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7514,7 +7511,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7525,7 +7522,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7536,7 +7533,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7569,7 +7566,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7580,7 +7577,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7602,7 +7599,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7613,7 +7610,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7635,7 +7632,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7646,7 +7643,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7657,7 +7654,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7701,7 +7698,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7712,7 +7709,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7723,7 +7720,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7734,7 +7731,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7745,7 +7742,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7756,7 +7753,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7767,7 +7764,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7778,7 +7775,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7789,7 +7786,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7811,7 +7808,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7822,7 +7819,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7833,7 +7830,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7844,7 +7841,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7855,7 +7852,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7877,7 +7874,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7888,7 +7885,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7921,7 +7918,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7954,7 +7951,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7965,7 +7962,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7976,7 +7973,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7987,7 +7984,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7998,7 +7995,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8009,7 +8006,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8020,7 +8017,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8031,7 +8028,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8042,7 +8039,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8064,7 +8061,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8075,7 +8072,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8086,7 +8083,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8097,7 +8094,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8108,7 +8105,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8119,7 +8116,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8130,7 +8127,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8141,7 +8138,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8163,7 +8160,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8174,7 +8171,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8185,7 +8182,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8196,7 +8193,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8207,7 +8204,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8218,7 +8215,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8229,7 +8226,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
